--- a/_All documents/Исследование запаха Амиак Фатькин А.Ю..xlsx
+++ b/_All documents/Исследование запаха Амиак Фатькин А.Ю..xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mission\3.Бизнес\Job\Центр Алмазова\НИР\НИР 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D05882-12C5-4ED4-9B25-94214F3B5399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B21529-8E65-4328-88FB-C14720C8D962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" tabRatio="810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="360" windowWidth="22320" windowHeight="16512" tabRatio="810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Аммиак 0,25" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="70">
   <si>
     <t>№</t>
   </si>
@@ -282,10 +282,19 @@
     <t>ФИО Фатькин А.Ю.</t>
   </si>
   <si>
-    <t>Дата 31.12.2025</t>
-  </si>
-  <si>
     <t>30 30 30</t>
+  </si>
+  <si>
+    <t>F T T</t>
+  </si>
+  <si>
+    <t>T F F</t>
+  </si>
+  <si>
+    <t>T T F F</t>
+  </si>
+  <si>
+    <t>T FF</t>
   </si>
 </sst>
 </file>
@@ -359,7 +368,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,8 +387,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -402,11 +423,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -507,6 +574,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -789,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E1EFB3-1F9E-4C21-BFE0-720506402944}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -806,11 +909,11 @@
     <col min="7" max="7" width="15.77734375" style="17" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="11.44140625" style="17" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="17" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22.77734375" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" customWidth="1"/>
+    <col min="10" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="24"/>
       <c r="B1" s="25" t="s">
         <v>38</v>
@@ -826,14 +929,14 @@
       <c r="I1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="27"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
@@ -861,10 +964,14 @@
       <c r="I2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-    </row>
-    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="J2" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="50"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="28"/>
+    </row>
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="28">
         <v>0</v>
       </c>
@@ -886,14 +993,20 @@
       <c r="I3" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="28" t="s">
+      <c r="J3" s="45">
+        <v>45688</v>
+      </c>
+      <c r="K3" s="45">
+        <v>45690</v>
+      </c>
+      <c r="L3" s="45">
+        <v>45699</v>
+      </c>
+      <c r="M3" s="28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="28">
         <v>1</v>
       </c>
@@ -904,10 +1017,13 @@
         <f t="shared" ref="C4:C5" si="1">LOG10(B4)</f>
         <v>3.5051499783199058</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="35" t="str">
+        <f t="shared" ref="D4:D6" si="2">_xlfn.CONCAT(A3,"&gt;",A4)</f>
+        <v>0&gt;1</v>
+      </c>
       <c r="E4" s="30"/>
       <c r="F4" s="33">
-        <f t="shared" ref="F4:F6" si="2">C3-C4</f>
+        <f t="shared" ref="F4:F6" si="3">C3-C4</f>
         <v>0.24535841653144042</v>
       </c>
       <c r="G4" s="34"/>
@@ -915,14 +1031,20 @@
       <c r="I4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="K4" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="28">
         <v>2</v>
       </c>
@@ -933,10 +1055,13 @@
         <f t="shared" si="1"/>
         <v>3.255272505103306</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>1&gt;2</v>
+      </c>
       <c r="E5" s="30"/>
       <c r="F5" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24987747321659981</v>
       </c>
       <c r="G5" s="34"/>
@@ -944,14 +1069,20 @@
       <c r="I5" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="J5" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="28">
         <v>3</v>
       </c>
@@ -963,15 +1094,15 @@
         <v>3</v>
       </c>
       <c r="D6" s="35" t="str">
-        <f>_xlfn.CONCAT(A3,"&gt;",A6)</f>
-        <v>0&gt;3</v>
+        <f t="shared" si="2"/>
+        <v>2&gt;3</v>
       </c>
       <c r="E6" s="36">
         <f>(B3-B6)/B3</f>
         <v>0.82238010657193605</v>
       </c>
       <c r="F6" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25527250510330601</v>
       </c>
       <c r="G6" s="34">
@@ -985,14 +1116,20 @@
       <c r="I6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="J6" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="28">
         <v>4</v>
       </c>
@@ -1000,7 +1137,7 @@
         <v>560</v>
       </c>
       <c r="C7" s="33">
-        <f t="shared" ref="C7:C9" si="3">LOG10(B7)</f>
+        <f t="shared" ref="C7:C9" si="4">LOG10(B7)</f>
         <v>2.7481880270062002</v>
       </c>
       <c r="D7" s="35" t="str">
@@ -1020,14 +1157,20 @@
       <c r="I7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="J7" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="28">
         <v>5</v>
       </c>
@@ -1035,7 +1178,7 @@
         <v>320</v>
       </c>
       <c r="C8" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5051499783199058</v>
       </c>
       <c r="D8" s="35" t="str">
@@ -1055,14 +1198,20 @@
       <c r="I8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="K8" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="28">
         <v>6</v>
       </c>
@@ -1070,7 +1219,7 @@
         <v>180</v>
       </c>
       <c r="C9" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.255272505103306</v>
       </c>
       <c r="D9" s="35" t="str">
@@ -1090,14 +1239,20 @@
       <c r="I9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="44" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="M9" s="37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="28">
         <v>7</v>
       </c>
@@ -1109,15 +1264,15 @@
         <v>2</v>
       </c>
       <c r="D10" s="38" t="str">
-        <f t="shared" ref="D10:D22" si="4">_xlfn.CONCAT(A9,"&gt;",A10)</f>
+        <f t="shared" ref="D10:D22" si="5">_xlfn.CONCAT(A9,"&gt;",A10)</f>
         <v>6&gt;7</v>
       </c>
       <c r="E10" s="36">
-        <f t="shared" ref="E10:E22" si="5">(B9-B10)/B9</f>
+        <f t="shared" ref="E10:E22" si="6">(B9-B10)/B9</f>
         <v>0.44444444444444442</v>
       </c>
       <c r="F10" s="33">
-        <f t="shared" ref="F10:F11" si="6">C9-C10</f>
+        <f t="shared" ref="F10:F11" si="7">C9-C10</f>
         <v>0.25527250510330601</v>
       </c>
       <c r="G10" s="34">
@@ -1131,14 +1286,20 @@
       <c r="I10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="37" t="s">
+      <c r="K10" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="37" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A11" s="28">
         <v>8</v>
       </c>
@@ -1146,19 +1307,19 @@
         <v>56</v>
       </c>
       <c r="C11" s="33">
-        <f t="shared" ref="C11:C22" si="7">LOG10(B11)</f>
+        <f t="shared" ref="C11:C22" si="8">LOG10(B11)</f>
         <v>1.7481880270062005</v>
       </c>
       <c r="D11" s="38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7&gt;8</v>
       </c>
       <c r="E11" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.44</v>
       </c>
       <c r="F11" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.25181197299379954</v>
       </c>
       <c r="G11" s="34">
@@ -1172,14 +1333,20 @@
       <c r="I11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="37" t="s">
+      <c r="K11" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="37" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A12" s="28">
         <v>9</v>
       </c>
@@ -1187,15 +1354,15 @@
         <v>32</v>
       </c>
       <c r="C12" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.505149978319906</v>
       </c>
       <c r="D12" s="38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8&gt;9</v>
       </c>
       <c r="E12" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="F12" s="33">
@@ -1207,20 +1374,26 @@
         <v>-3.125E-2</v>
       </c>
       <c r="H12" s="34">
-        <f t="shared" ref="H12:H21" si="8">G11-G12</f>
+        <f t="shared" ref="H12:H21" si="9">G11-G12</f>
         <v>1.3392857142857144E-2</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="37" t="s">
+      <c r="J12" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="37" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="28">
         <v>10</v>
       </c>
@@ -1228,19 +1401,19 @@
         <v>18</v>
       </c>
       <c r="C13" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.255272505103306</v>
       </c>
       <c r="D13" s="38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9&gt;10</v>
       </c>
       <c r="E13" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.4375</v>
       </c>
       <c r="F13" s="33">
-        <f t="shared" ref="F13:F22" si="9">C12-C13</f>
+        <f t="shared" ref="F13:F22" si="10">C12-C13</f>
         <v>0.24987747321660003</v>
       </c>
       <c r="G13" s="34">
@@ -1248,20 +1421,26 @@
         <v>-5.5555555555555552E-2</v>
       </c>
       <c r="H13" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4305555555555552E-2</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="37" t="s">
+      <c r="J13" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="37" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="28">
         <v>11</v>
       </c>
@@ -1269,19 +1448,19 @@
         <v>10</v>
       </c>
       <c r="C14" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D14" s="38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10&gt;11</v>
       </c>
       <c r="E14" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="F14" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.25527250510330601</v>
       </c>
       <c r="G14" s="34">
@@ -1289,20 +1468,26 @@
         <v>-0.1</v>
       </c>
       <c r="H14" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.4444444444444453E-2</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="37" t="s">
+      <c r="J14" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="37" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A15" s="28">
         <v>12</v>
       </c>
@@ -1310,19 +1495,19 @@
         <v>5.6</v>
       </c>
       <c r="C15" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.74818802700620035</v>
       </c>
       <c r="D15" s="38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11&gt;12</v>
       </c>
       <c r="E15" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.44000000000000006</v>
       </c>
       <c r="F15" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.25181197299379965</v>
       </c>
       <c r="G15" s="34">
@@ -1330,20 +1515,26 @@
         <v>-0.17857142857142858</v>
       </c>
       <c r="H15" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.857142857142857E-2</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="37" t="s">
+      <c r="J15" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="37" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A16" s="28">
         <v>13</v>
       </c>
@@ -1351,19 +1542,19 @@
         <v>3.2</v>
       </c>
       <c r="C16" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.50514997831990605</v>
       </c>
       <c r="D16" s="38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12&gt;13</v>
       </c>
       <c r="E16" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.42857142857142849</v>
       </c>
       <c r="F16" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.24303804868629431</v>
       </c>
       <c r="G16" s="34">
@@ -1371,20 +1562,26 @@
         <v>-0.3125</v>
       </c>
       <c r="H16" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.13392857142857142</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="37" t="s">
+      <c r="J16" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="37" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="28">
         <v>14</v>
       </c>
@@ -1392,7 +1589,7 @@
         <v>1.8</v>
       </c>
       <c r="C17" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.25527250510330607</v>
       </c>
       <c r="D17" s="38" t="str">
@@ -1400,11 +1597,11 @@
         <v>13&gt;14</v>
       </c>
       <c r="E17" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.4375</v>
       </c>
       <c r="F17" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.24987747321659998</v>
       </c>
       <c r="G17" s="34">
@@ -1412,20 +1609,26 @@
         <v>-0.55555555555555558</v>
       </c>
       <c r="H17" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.24305555555555558</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="37" t="s">
+      <c r="J17" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="37" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="28">
         <v>15</v>
       </c>
@@ -1433,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D18" s="38" t="str">
@@ -1459,12 +1662,14 @@
       <c r="I18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="K18" s="37"/>
-    </row>
-    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="37"/>
+    </row>
+    <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="28">
         <v>16</v>
       </c>
@@ -1472,19 +1677,19 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="C19" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.25181197299379954</v>
       </c>
       <c r="D19" s="35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15&gt;16</v>
       </c>
       <c r="E19" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.43999999999999995</v>
       </c>
       <c r="F19" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.25181197299379954</v>
       </c>
       <c r="G19" s="34">
@@ -1492,18 +1697,20 @@
         <v>-1.7857142857142856</v>
       </c>
       <c r="H19" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.78571428571428559</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="K19" s="37"/>
-    </row>
-    <row r="20" spans="1:11" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="37"/>
+    </row>
+    <row r="20" spans="1:13" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A20" s="28">
         <v>17</v>
       </c>
@@ -1511,19 +1718,19 @@
         <v>0.32</v>
       </c>
       <c r="C20" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.49485002168009401</v>
       </c>
       <c r="D20" s="35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16&gt;17</v>
       </c>
       <c r="E20" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.4285714285714286</v>
       </c>
       <c r="F20" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.24303804868629447</v>
       </c>
       <c r="G20" s="34">
@@ -1531,16 +1738,20 @@
         <v>-3.125</v>
       </c>
       <c r="H20" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.3392857142857144</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="37"/>
-    </row>
-    <row r="21" spans="1:11" ht="18" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="J20" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="37"/>
+    </row>
+    <row r="21" spans="1:13" ht="18" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A21" s="28">
         <v>18</v>
       </c>
@@ -1548,19 +1759,19 @@
         <v>0.18</v>
       </c>
       <c r="C21" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.74472749489669399</v>
       </c>
       <c r="D21" s="35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17&gt;18</v>
       </c>
       <c r="E21" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.43750000000000006</v>
       </c>
       <c r="F21" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.24987747321659998</v>
       </c>
       <c r="G21" s="34">
@@ -1568,16 +1779,20 @@
         <v>-5.5555555555555554</v>
       </c>
       <c r="H21" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4305555555555554</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="37"/>
-    </row>
-    <row r="22" spans="1:11" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="J21" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="37"/>
+    </row>
+    <row r="22" spans="1:13" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A22" s="28">
         <v>19</v>
       </c>
@@ -1585,19 +1800,19 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="D22" s="38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18&gt;19</v>
       </c>
       <c r="E22" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="F22" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.25527250510330601</v>
       </c>
       <c r="G22" s="34">
@@ -1611,10 +1826,14 @@
       <c r="I22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="37"/>
-    </row>
-    <row r="23" spans="1:11" ht="18" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="J22" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="37"/>
+    </row>
+    <row r="23" spans="1:13" ht="18" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A23" s="28">
         <v>20</v>
       </c>
@@ -1633,12 +1852,14 @@
       <c r="I23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -1649,8 +1870,14 @@
       <c r="H24" s="16"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
